--- a/StatsBasePerLevel.xlsx
+++ b/StatsBasePerLevel.xlsx
@@ -405,7 +405,7 @@
   <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="C7" sqref="C7:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/StatsBasePerLevel.xlsx
+++ b/StatsBasePerLevel.xlsx
@@ -16,27 +16,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>HP</t>
   </si>
   <si>
     <t>MP</t>
-  </si>
-  <si>
-    <t>END</t>
-  </si>
-  <si>
-    <t>POW</t>
-  </si>
-  <si>
-    <t>CHA</t>
-  </si>
-  <si>
-    <t>VEL</t>
-  </si>
-  <si>
-    <t>SHI</t>
   </si>
   <si>
     <t>EXP_Total</t>
@@ -49,6 +34,24 @@
   </si>
   <si>
     <t>NA</t>
+  </si>
+  <si>
+    <t>indexShield</t>
+  </si>
+  <si>
+    <t>endurance</t>
+  </si>
+  <si>
+    <t>power</t>
+  </si>
+  <si>
+    <t>chance</t>
+  </si>
+  <si>
+    <t>velocity</t>
+  </si>
+  <si>
+    <t>shield</t>
   </si>
 </sst>
 </file>
@@ -402,20 +405,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:U31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:E7"/>
+      <selection activeCell="H2" sqref="H2:H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="20" width="15.7109375" style="1" customWidth="1"/>
+    <col min="1" max="21" width="15.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -424,27 +427,29 @@
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="2"/>
+        <v>2</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
@@ -454,8 +459,9 @@
       <c r="R1" s="2"/>
       <c r="S1" s="2"/>
       <c r="T1" s="2"/>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1" s="2"/>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -484,18 +490,22 @@
         <v>25</v>
       </c>
       <c r="H2" s="3">
-        <f>(A2+8)*(A2-1)/2*0.04+10+0.8</f>
-        <v>10.8</v>
+        <f>(A2+8)*(A2-1)/2*5+200</f>
+        <v>200</v>
       </c>
       <c r="I2" s="3">
+        <f>H2/200</f>
+        <v>1</v>
+      </c>
+      <c r="J2" s="3">
         <f>(A2-1)*A2*(2*A2-1)/6*100</f>
         <v>0</v>
       </c>
-      <c r="J2" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="K2" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -524,19 +534,23 @@
         <v>30</v>
       </c>
       <c r="H3" s="3">
-        <f t="shared" ref="H3:H31" si="6">(A3+8)*(A3-1)/2*0.04+10+0.8</f>
-        <v>11</v>
+        <f t="shared" ref="H3:H31" si="6">(A3+8)*(A3-1)/2*5+200</f>
+        <v>225</v>
       </c>
       <c r="I3" s="3">
-        <f t="shared" ref="I3:I31" si="7">(A3-1)*A3*(2*A3-1)/6*100</f>
+        <f t="shared" ref="I3:I31" si="7">H3/200</f>
+        <v>1.125</v>
+      </c>
+      <c r="J3" s="3">
+        <f t="shared" ref="J3:J31" si="8">(A3-1)*A3*(2*A3-1)/6*100</f>
         <v>100</v>
       </c>
-      <c r="J3" s="3">
-        <f>I3-I2</f>
+      <c r="K3" s="3">
+        <f>J3-J2</f>
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -566,18 +580,22 @@
       </c>
       <c r="H4" s="3">
         <f t="shared" si="6"/>
-        <v>11.24</v>
+        <v>255</v>
       </c>
       <c r="I4" s="3">
         <f t="shared" si="7"/>
+        <v>1.2749999999999999</v>
+      </c>
+      <c r="J4" s="3">
+        <f t="shared" si="8"/>
         <v>500</v>
       </c>
-      <c r="J4" s="3">
-        <f t="shared" ref="J4:J31" si="8">I4-I3</f>
+      <c r="K4" s="3">
+        <f t="shared" ref="K4:K31" si="9">J4-J3</f>
         <v>400</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -607,18 +625,22 @@
       </c>
       <c r="H5" s="3">
         <f t="shared" si="6"/>
-        <v>11.520000000000001</v>
+        <v>290</v>
       </c>
       <c r="I5" s="3">
         <f t="shared" si="7"/>
+        <v>1.45</v>
+      </c>
+      <c r="J5" s="3">
+        <f t="shared" si="8"/>
         <v>1400</v>
       </c>
-      <c r="J5" s="3">
-        <f t="shared" si="8"/>
+      <c r="K5" s="3">
+        <f t="shared" si="9"/>
         <v>900</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -648,18 +670,22 @@
       </c>
       <c r="H6" s="3">
         <f t="shared" si="6"/>
-        <v>11.84</v>
+        <v>330</v>
       </c>
       <c r="I6" s="3">
         <f t="shared" si="7"/>
+        <v>1.65</v>
+      </c>
+      <c r="J6" s="3">
+        <f t="shared" si="8"/>
         <v>3000</v>
       </c>
-      <c r="J6" s="3">
-        <f t="shared" si="8"/>
+      <c r="K6" s="3">
+        <f t="shared" si="9"/>
         <v>1600</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -689,18 +715,22 @@
       </c>
       <c r="H7" s="3">
         <f t="shared" si="6"/>
-        <v>12.200000000000001</v>
+        <v>375</v>
       </c>
       <c r="I7" s="3">
         <f t="shared" si="7"/>
+        <v>1.875</v>
+      </c>
+      <c r="J7" s="3">
+        <f t="shared" si="8"/>
         <v>5500</v>
       </c>
-      <c r="J7" s="3">
-        <f t="shared" si="8"/>
+      <c r="K7" s="3">
+        <f t="shared" si="9"/>
         <v>2500</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -730,18 +760,22 @@
       </c>
       <c r="H8" s="3">
         <f t="shared" si="6"/>
-        <v>12.600000000000001</v>
+        <v>425</v>
       </c>
       <c r="I8" s="3">
         <f t="shared" si="7"/>
+        <v>2.125</v>
+      </c>
+      <c r="J8" s="3">
+        <f t="shared" si="8"/>
         <v>9100</v>
       </c>
-      <c r="J8" s="3">
-        <f t="shared" si="8"/>
+      <c r="K8" s="3">
+        <f t="shared" si="9"/>
         <v>3600</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -771,18 +805,22 @@
       </c>
       <c r="H9" s="3">
         <f t="shared" si="6"/>
-        <v>13.040000000000001</v>
+        <v>480</v>
       </c>
       <c r="I9" s="3">
         <f t="shared" si="7"/>
+        <v>2.4</v>
+      </c>
+      <c r="J9" s="3">
+        <f t="shared" si="8"/>
         <v>14000</v>
       </c>
-      <c r="J9" s="3">
-        <f t="shared" si="8"/>
+      <c r="K9" s="3">
+        <f t="shared" si="9"/>
         <v>4900</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -812,18 +850,22 @@
       </c>
       <c r="H10" s="3">
         <f t="shared" si="6"/>
-        <v>13.520000000000001</v>
+        <v>540</v>
       </c>
       <c r="I10" s="3">
         <f t="shared" si="7"/>
+        <v>2.7</v>
+      </c>
+      <c r="J10" s="3">
+        <f t="shared" si="8"/>
         <v>20400</v>
       </c>
-      <c r="J10" s="3">
-        <f t="shared" si="8"/>
+      <c r="K10" s="3">
+        <f t="shared" si="9"/>
         <v>6400</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -853,18 +895,22 @@
       </c>
       <c r="H11" s="3">
         <f t="shared" si="6"/>
-        <v>14.040000000000001</v>
+        <v>605</v>
       </c>
       <c r="I11" s="3">
         <f t="shared" si="7"/>
+        <v>3.0249999999999999</v>
+      </c>
+      <c r="J11" s="3">
+        <f t="shared" si="8"/>
         <v>28500</v>
       </c>
-      <c r="J11" s="3">
-        <f t="shared" si="8"/>
+      <c r="K11" s="3">
+        <f t="shared" si="9"/>
         <v>8100</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -894,18 +940,22 @@
       </c>
       <c r="H12" s="3">
         <f t="shared" si="6"/>
-        <v>14.600000000000001</v>
+        <v>675</v>
       </c>
       <c r="I12" s="3">
         <f t="shared" si="7"/>
+        <v>3.375</v>
+      </c>
+      <c r="J12" s="3">
+        <f t="shared" si="8"/>
         <v>38500</v>
       </c>
-      <c r="J12" s="3">
-        <f t="shared" si="8"/>
+      <c r="K12" s="3">
+        <f t="shared" si="9"/>
         <v>10000</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -935,18 +985,22 @@
       </c>
       <c r="H13" s="3">
         <f t="shared" si="6"/>
-        <v>15.200000000000001</v>
+        <v>750</v>
       </c>
       <c r="I13" s="3">
         <f t="shared" si="7"/>
+        <v>3.75</v>
+      </c>
+      <c r="J13" s="3">
+        <f t="shared" si="8"/>
         <v>50600</v>
       </c>
-      <c r="J13" s="3">
-        <f t="shared" si="8"/>
+      <c r="K13" s="3">
+        <f t="shared" si="9"/>
         <v>12100</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -976,18 +1030,22 @@
       </c>
       <c r="H14" s="3">
         <f t="shared" si="6"/>
-        <v>15.84</v>
+        <v>830</v>
       </c>
       <c r="I14" s="3">
         <f t="shared" si="7"/>
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="J14" s="3">
+        <f t="shared" si="8"/>
         <v>65000</v>
       </c>
-      <c r="J14" s="3">
-        <f t="shared" si="8"/>
+      <c r="K14" s="3">
+        <f t="shared" si="9"/>
         <v>14400</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -1017,18 +1075,22 @@
       </c>
       <c r="H15" s="3">
         <f t="shared" si="6"/>
-        <v>16.52</v>
+        <v>915</v>
       </c>
       <c r="I15" s="3">
         <f t="shared" si="7"/>
+        <v>4.5750000000000002</v>
+      </c>
+      <c r="J15" s="3">
+        <f t="shared" si="8"/>
         <v>81900</v>
       </c>
-      <c r="J15" s="3">
-        <f t="shared" si="8"/>
+      <c r="K15" s="3">
+        <f t="shared" si="9"/>
         <v>16900</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -1058,18 +1120,22 @@
       </c>
       <c r="H16" s="3">
         <f t="shared" si="6"/>
-        <v>17.240000000000002</v>
+        <v>1005</v>
       </c>
       <c r="I16" s="3">
         <f t="shared" si="7"/>
+        <v>5.0250000000000004</v>
+      </c>
+      <c r="J16" s="3">
+        <f t="shared" si="8"/>
         <v>101500</v>
       </c>
-      <c r="J16" s="3">
-        <f t="shared" si="8"/>
+      <c r="K16" s="3">
+        <f t="shared" si="9"/>
         <v>19600</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -1099,18 +1165,22 @@
       </c>
       <c r="H17" s="3">
         <f t="shared" si="6"/>
-        <v>18</v>
+        <v>1100</v>
       </c>
       <c r="I17" s="3">
         <f t="shared" si="7"/>
+        <v>5.5</v>
+      </c>
+      <c r="J17" s="3">
+        <f t="shared" si="8"/>
         <v>124000</v>
       </c>
-      <c r="J17" s="3">
-        <f t="shared" si="8"/>
+      <c r="K17" s="3">
+        <f t="shared" si="9"/>
         <v>22500</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -1140,18 +1210,22 @@
       </c>
       <c r="H18" s="3">
         <f t="shared" si="6"/>
-        <v>18.8</v>
+        <v>1200</v>
       </c>
       <c r="I18" s="3">
         <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="J18" s="3">
+        <f t="shared" si="8"/>
         <v>149600</v>
       </c>
-      <c r="J18" s="3">
-        <f t="shared" si="8"/>
+      <c r="K18" s="3">
+        <f t="shared" si="9"/>
         <v>25600</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -1181,18 +1255,22 @@
       </c>
       <c r="H19" s="3">
         <f t="shared" si="6"/>
-        <v>19.64</v>
+        <v>1305</v>
       </c>
       <c r="I19" s="3">
         <f t="shared" si="7"/>
+        <v>6.5250000000000004</v>
+      </c>
+      <c r="J19" s="3">
+        <f t="shared" si="8"/>
         <v>178500</v>
       </c>
-      <c r="J19" s="3">
-        <f t="shared" si="8"/>
+      <c r="K19" s="3">
+        <f t="shared" si="9"/>
         <v>28900</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -1222,18 +1300,22 @@
       </c>
       <c r="H20" s="3">
         <f t="shared" si="6"/>
-        <v>20.52</v>
+        <v>1415</v>
       </c>
       <c r="I20" s="3">
         <f t="shared" si="7"/>
+        <v>7.0750000000000002</v>
+      </c>
+      <c r="J20" s="3">
+        <f t="shared" si="8"/>
         <v>210900</v>
       </c>
-      <c r="J20" s="3">
-        <f t="shared" si="8"/>
+      <c r="K20" s="3">
+        <f t="shared" si="9"/>
         <v>32400</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -1263,18 +1345,22 @@
       </c>
       <c r="H21" s="3">
         <f t="shared" si="6"/>
-        <v>21.44</v>
+        <v>1530</v>
       </c>
       <c r="I21" s="3">
         <f t="shared" si="7"/>
+        <v>7.65</v>
+      </c>
+      <c r="J21" s="3">
+        <f t="shared" si="8"/>
         <v>247000</v>
       </c>
-      <c r="J21" s="3">
-        <f t="shared" si="8"/>
+      <c r="K21" s="3">
+        <f t="shared" si="9"/>
         <v>36100</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -1304,18 +1390,22 @@
       </c>
       <c r="H22" s="3">
         <f t="shared" si="6"/>
-        <v>22.400000000000002</v>
+        <v>1650</v>
       </c>
       <c r="I22" s="3">
         <f t="shared" si="7"/>
+        <v>8.25</v>
+      </c>
+      <c r="J22" s="3">
+        <f t="shared" si="8"/>
         <v>287000</v>
       </c>
-      <c r="J22" s="3">
-        <f t="shared" si="8"/>
+      <c r="K22" s="3">
+        <f t="shared" si="9"/>
         <v>40000</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -1345,18 +1435,22 @@
       </c>
       <c r="H23" s="3">
         <f t="shared" si="6"/>
-        <v>23.400000000000002</v>
+        <v>1775</v>
       </c>
       <c r="I23" s="3">
         <f t="shared" si="7"/>
+        <v>8.875</v>
+      </c>
+      <c r="J23" s="3">
+        <f t="shared" si="8"/>
         <v>331100</v>
       </c>
-      <c r="J23" s="3">
-        <f t="shared" si="8"/>
+      <c r="K23" s="3">
+        <f t="shared" si="9"/>
         <v>44100</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>23</v>
       </c>
@@ -1386,18 +1480,22 @@
       </c>
       <c r="H24" s="3">
         <f t="shared" si="6"/>
-        <v>24.44</v>
+        <v>1905</v>
       </c>
       <c r="I24" s="3">
         <f t="shared" si="7"/>
+        <v>9.5250000000000004</v>
+      </c>
+      <c r="J24" s="3">
+        <f t="shared" si="8"/>
         <v>379500</v>
       </c>
-      <c r="J24" s="3">
-        <f t="shared" si="8"/>
+      <c r="K24" s="3">
+        <f t="shared" si="9"/>
         <v>48400</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>24</v>
       </c>
@@ -1427,18 +1525,22 @@
       </c>
       <c r="H25" s="3">
         <f t="shared" si="6"/>
-        <v>25.52</v>
+        <v>2040</v>
       </c>
       <c r="I25" s="3">
         <f t="shared" si="7"/>
+        <v>10.199999999999999</v>
+      </c>
+      <c r="J25" s="3">
+        <f t="shared" si="8"/>
         <v>432400</v>
       </c>
-      <c r="J25" s="3">
-        <f t="shared" si="8"/>
+      <c r="K25" s="3">
+        <f t="shared" si="9"/>
         <v>52900</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -1468,18 +1570,22 @@
       </c>
       <c r="H26" s="3">
         <f t="shared" si="6"/>
-        <v>26.64</v>
+        <v>2180</v>
       </c>
       <c r="I26" s="3">
         <f t="shared" si="7"/>
+        <v>10.9</v>
+      </c>
+      <c r="J26" s="3">
+        <f t="shared" si="8"/>
         <v>490000</v>
       </c>
-      <c r="J26" s="3">
-        <f t="shared" si="8"/>
+      <c r="K26" s="3">
+        <f t="shared" si="9"/>
         <v>57600</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>26</v>
       </c>
@@ -1509,18 +1615,22 @@
       </c>
       <c r="H27" s="3">
         <f t="shared" si="6"/>
-        <v>27.8</v>
+        <v>2325</v>
       </c>
       <c r="I27" s="3">
         <f t="shared" si="7"/>
+        <v>11.625</v>
+      </c>
+      <c r="J27" s="3">
+        <f t="shared" si="8"/>
         <v>552500</v>
       </c>
-      <c r="J27" s="3">
-        <f t="shared" si="8"/>
+      <c r="K27" s="3">
+        <f t="shared" si="9"/>
         <v>62500</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>27</v>
       </c>
@@ -1550,18 +1660,22 @@
       </c>
       <c r="H28" s="3">
         <f t="shared" si="6"/>
-        <v>29</v>
+        <v>2475</v>
       </c>
       <c r="I28" s="3">
         <f t="shared" si="7"/>
+        <v>12.375</v>
+      </c>
+      <c r="J28" s="3">
+        <f t="shared" si="8"/>
         <v>620100</v>
       </c>
-      <c r="J28" s="3">
-        <f t="shared" si="8"/>
+      <c r="K28" s="3">
+        <f t="shared" si="9"/>
         <v>67600</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>28</v>
       </c>
@@ -1591,18 +1705,22 @@
       </c>
       <c r="H29" s="3">
         <f t="shared" si="6"/>
-        <v>30.240000000000002</v>
+        <v>2630</v>
       </c>
       <c r="I29" s="3">
         <f t="shared" si="7"/>
+        <v>13.15</v>
+      </c>
+      <c r="J29" s="3">
+        <f t="shared" si="8"/>
         <v>693000</v>
       </c>
-      <c r="J29" s="3">
-        <f t="shared" si="8"/>
+      <c r="K29" s="3">
+        <f t="shared" si="9"/>
         <v>72900</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>29</v>
       </c>
@@ -1632,18 +1750,22 @@
       </c>
       <c r="H30" s="3">
         <f t="shared" si="6"/>
-        <v>31.52</v>
+        <v>2790</v>
       </c>
       <c r="I30" s="3">
         <f t="shared" si="7"/>
+        <v>13.95</v>
+      </c>
+      <c r="J30" s="3">
+        <f t="shared" si="8"/>
         <v>771400</v>
       </c>
-      <c r="J30" s="3">
-        <f t="shared" si="8"/>
+      <c r="K30" s="3">
+        <f t="shared" si="9"/>
         <v>78400</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>30</v>
       </c>
@@ -1673,14 +1795,18 @@
       </c>
       <c r="H31" s="3">
         <f t="shared" si="6"/>
-        <v>32.839999999999996</v>
+        <v>2955</v>
       </c>
       <c r="I31" s="3">
         <f t="shared" si="7"/>
+        <v>14.775</v>
+      </c>
+      <c r="J31" s="3">
+        <f t="shared" si="8"/>
         <v>855500</v>
       </c>
-      <c r="J31" s="3">
-        <f t="shared" si="8"/>
+      <c r="K31" s="3">
+        <f t="shared" si="9"/>
         <v>84100</v>
       </c>
     </row>

--- a/StatsBasePerLevel.xlsx
+++ b/StatsBasePerLevel.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -58,8 +58,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -93,17 +101,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -408,7 +417,7 @@
   <dimension ref="A1:U31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H31"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -416,1396 +425,1396 @@
     <col min="1" max="21" width="15.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="2">
         <f>(A2+8)*(A2-1)/2*5+100</f>
         <v>100</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="2">
         <f>50+14*(A2-1)+3*(A2-1)*(A2-2)/2</f>
         <v>50</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="2">
         <f>(A2+8)*(A2-1)/2+20</f>
         <v>20</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="2">
         <f>28+7*A2</f>
         <v>35</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="2">
         <f>INT(A2/3)+1</f>
         <v>1</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="2">
         <f>20+5*A2</f>
         <v>25</v>
       </c>
-      <c r="H2" s="3">
+      <c r="H2" s="2">
         <f>(A2+8)*(A2-1)/2*5+200</f>
         <v>200</v>
       </c>
-      <c r="I2" s="3">
-        <f>H2/200</f>
-        <v>1</v>
-      </c>
-      <c r="J2" s="3">
+      <c r="I2" s="2">
+        <f>INT(LOG(H2)^(5/2)*100)/100</f>
+        <v>8.0299999999999994</v>
+      </c>
+      <c r="J2" s="2">
         <f>(A2-1)*A2*(2*A2-1)/6*100</f>
         <v>0</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="2">
         <f t="shared" ref="B3:B31" si="0">(A3+8)*(A3-1)/2*5+100</f>
         <v>125</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="2">
         <f t="shared" ref="C3:C31" si="1">50+14*(A3-1)+3*(A3-1)*(A3-2)/2</f>
         <v>64</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="2">
         <f t="shared" ref="D3:D31" si="2">(A3+8)*(A3-1)/2+20</f>
         <v>25</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="2">
         <f t="shared" ref="E3:E31" si="3">28+7*A3</f>
         <v>42</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="2">
         <f t="shared" ref="F3:F30" si="4">INT(A3/3)+1</f>
         <v>1</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="2">
         <f t="shared" ref="G3:G31" si="5">20+5*A3</f>
         <v>30</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H3" s="2">
         <f t="shared" ref="H3:H31" si="6">(A3+8)*(A3-1)/2*5+200</f>
         <v>225</v>
       </c>
-      <c r="I3" s="3">
-        <f t="shared" ref="I3:I31" si="7">H3/200</f>
-        <v>1.125</v>
-      </c>
-      <c r="J3" s="3">
+      <c r="I3" s="2">
+        <f t="shared" ref="I3:I31" si="7">INT(LOG(H3)^(5/2)*100)/100</f>
+        <v>8.48</v>
+      </c>
+      <c r="J3" s="2">
         <f t="shared" ref="J3:J31" si="8">(A3-1)*A3*(2*A3-1)/6*100</f>
         <v>100</v>
       </c>
-      <c r="K3" s="3">
+      <c r="K3" s="2">
         <f>J3-J2</f>
         <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
+      <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="2">
         <f t="shared" si="0"/>
         <v>155</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="2">
         <f t="shared" si="1"/>
         <v>81</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="2">
         <f t="shared" si="2"/>
         <v>31</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="2">
         <f t="shared" si="3"/>
         <v>49</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="2">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="2">
         <f t="shared" si="5"/>
         <v>35</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="2">
         <f t="shared" si="6"/>
         <v>255</v>
       </c>
-      <c r="I4" s="3">
-        <f t="shared" si="7"/>
-        <v>1.2749999999999999</v>
-      </c>
-      <c r="J4" s="3">
+      <c r="I4" s="2">
+        <f t="shared" si="7"/>
+        <v>8.98</v>
+      </c>
+      <c r="J4" s="2">
         <f t="shared" si="8"/>
         <v>500</v>
       </c>
-      <c r="K4" s="3">
+      <c r="K4" s="2">
         <f t="shared" ref="K4:K31" si="9">J4-J3</f>
         <v>400</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
+      <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="2">
         <f t="shared" si="0"/>
         <v>190</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="2">
         <f t="shared" si="1"/>
         <v>101</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="2">
         <f t="shared" si="2"/>
         <v>38</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="2">
         <f t="shared" si="3"/>
         <v>56</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="2">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="2">
         <f t="shared" si="5"/>
         <v>40</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="2">
         <f t="shared" si="6"/>
         <v>290</v>
       </c>
-      <c r="I5" s="3">
-        <f t="shared" si="7"/>
-        <v>1.45</v>
-      </c>
-      <c r="J5" s="3">
+      <c r="I5" s="2">
+        <f t="shared" si="7"/>
+        <v>9.51</v>
+      </c>
+      <c r="J5" s="2">
         <f t="shared" si="8"/>
         <v>1400</v>
       </c>
-      <c r="K5" s="3">
+      <c r="K5" s="2">
         <f t="shared" si="9"/>
         <v>900</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
+      <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="2">
         <f t="shared" si="0"/>
         <v>230</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="2">
         <f t="shared" si="1"/>
         <v>124</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="2">
         <f t="shared" si="2"/>
         <v>46</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="2">
         <f t="shared" si="3"/>
         <v>63</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="2">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="2">
         <f t="shared" si="5"/>
         <v>45</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="2">
         <f t="shared" si="6"/>
         <v>330</v>
       </c>
-      <c r="I6" s="3">
-        <f t="shared" si="7"/>
-        <v>1.65</v>
-      </c>
-      <c r="J6" s="3">
+      <c r="I6" s="2">
+        <f t="shared" si="7"/>
+        <v>10.06</v>
+      </c>
+      <c r="J6" s="2">
         <f t="shared" si="8"/>
         <v>3000</v>
       </c>
-      <c r="K6" s="3">
+      <c r="K6" s="2">
         <f t="shared" si="9"/>
         <v>1600</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
+      <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="2">
         <f t="shared" si="0"/>
         <v>275</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="2">
         <f t="shared" si="1"/>
         <v>150</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="2">
         <f t="shared" si="2"/>
         <v>55</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="2">
         <f t="shared" si="3"/>
         <v>70</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="2">
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="2">
         <f t="shared" si="5"/>
         <v>50</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7" s="2">
         <f t="shared" si="6"/>
         <v>375</v>
       </c>
-      <c r="I7" s="3">
-        <f t="shared" si="7"/>
-        <v>1.875</v>
-      </c>
-      <c r="J7" s="3">
+      <c r="I7" s="2">
+        <f t="shared" si="7"/>
+        <v>10.63</v>
+      </c>
+      <c r="J7" s="2">
         <f t="shared" si="8"/>
         <v>5500</v>
       </c>
-      <c r="K7" s="3">
+      <c r="K7" s="2">
         <f t="shared" si="9"/>
         <v>2500</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
+      <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="2">
         <f t="shared" si="0"/>
         <v>325</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="2">
         <f t="shared" si="1"/>
         <v>179</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="2">
         <f t="shared" si="2"/>
         <v>65</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="2">
         <f t="shared" si="3"/>
         <v>77</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="2">
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8" s="2">
         <f t="shared" si="5"/>
         <v>55</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8" s="2">
         <f t="shared" si="6"/>
         <v>425</v>
       </c>
-      <c r="I8" s="3">
-        <f t="shared" si="7"/>
-        <v>2.125</v>
-      </c>
-      <c r="J8" s="3">
+      <c r="I8" s="2">
+        <f t="shared" si="7"/>
+        <v>11.2</v>
+      </c>
+      <c r="J8" s="2">
         <f t="shared" si="8"/>
         <v>9100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="K8" s="2">
         <f t="shared" si="9"/>
         <v>3600</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
+      <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="2">
         <f t="shared" si="0"/>
         <v>380</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="2">
         <f t="shared" si="1"/>
         <v>211</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="2">
         <f t="shared" si="2"/>
         <v>76</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="2">
         <f t="shared" si="3"/>
         <v>84</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="2">
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" s="2">
         <f t="shared" si="5"/>
         <v>60</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9" s="2">
         <f t="shared" si="6"/>
         <v>480</v>
       </c>
-      <c r="I9" s="3">
-        <f t="shared" si="7"/>
-        <v>2.4</v>
-      </c>
-      <c r="J9" s="3">
+      <c r="I9" s="2">
+        <f t="shared" si="7"/>
+        <v>11.77</v>
+      </c>
+      <c r="J9" s="2">
         <f t="shared" si="8"/>
         <v>14000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="K9" s="2">
         <f t="shared" si="9"/>
         <v>4900</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
+      <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="2">
         <f t="shared" si="0"/>
         <v>440</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="2">
         <f t="shared" si="1"/>
         <v>246</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="2">
         <f t="shared" si="2"/>
         <v>88</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="2">
         <f t="shared" si="3"/>
         <v>91</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="2">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" s="2">
         <f t="shared" si="5"/>
         <v>65</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10" s="2">
         <f t="shared" si="6"/>
         <v>540</v>
       </c>
-      <c r="I10" s="3">
-        <f t="shared" si="7"/>
-        <v>2.7</v>
-      </c>
-      <c r="J10" s="3">
+      <c r="I10" s="2">
+        <f t="shared" si="7"/>
+        <v>12.34</v>
+      </c>
+      <c r="J10" s="2">
         <f t="shared" si="8"/>
         <v>20400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="K10" s="2">
         <f t="shared" si="9"/>
         <v>6400</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
+      <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="2">
         <f t="shared" si="0"/>
         <v>505</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="2">
         <f t="shared" si="1"/>
         <v>284</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="2">
         <f t="shared" si="2"/>
         <v>101</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="2">
         <f t="shared" si="3"/>
         <v>98</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="2">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G11" s="2">
         <f t="shared" si="5"/>
         <v>70</v>
       </c>
-      <c r="H11" s="3">
+      <c r="H11" s="2">
         <f t="shared" si="6"/>
         <v>605</v>
       </c>
-      <c r="I11" s="3">
-        <f t="shared" si="7"/>
-        <v>3.0249999999999999</v>
-      </c>
-      <c r="J11" s="3">
+      <c r="I11" s="2">
+        <f t="shared" si="7"/>
+        <v>12.9</v>
+      </c>
+      <c r="J11" s="2">
         <f t="shared" si="8"/>
         <v>28500</v>
       </c>
-      <c r="K11" s="3">
+      <c r="K11" s="2">
         <f t="shared" si="9"/>
         <v>8100</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
+      <c r="A12" s="2">
         <v>11</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="2">
         <f t="shared" si="0"/>
         <v>575</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="2">
         <f t="shared" si="1"/>
         <v>325</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="2">
         <f t="shared" si="2"/>
         <v>115</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="2">
         <f t="shared" si="3"/>
         <v>105</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="2">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G12" s="2">
         <f t="shared" si="5"/>
         <v>75</v>
       </c>
-      <c r="H12" s="3">
+      <c r="H12" s="2">
         <f t="shared" si="6"/>
         <v>675</v>
       </c>
-      <c r="I12" s="3">
-        <f t="shared" si="7"/>
-        <v>3.375</v>
-      </c>
-      <c r="J12" s="3">
+      <c r="I12" s="2">
+        <f t="shared" si="7"/>
+        <v>13.46</v>
+      </c>
+      <c r="J12" s="2">
         <f t="shared" si="8"/>
         <v>38500</v>
       </c>
-      <c r="K12" s="3">
+      <c r="K12" s="2">
         <f t="shared" si="9"/>
         <v>10000</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
+      <c r="A13" s="2">
         <v>12</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="2">
         <f t="shared" si="0"/>
         <v>650</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="2">
         <f t="shared" si="1"/>
         <v>369</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="2">
         <f t="shared" si="2"/>
         <v>130</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="2">
         <f t="shared" si="3"/>
         <v>112</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="2">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="G13" s="3">
+      <c r="G13" s="2">
         <f t="shared" si="5"/>
         <v>80</v>
       </c>
-      <c r="H13" s="3">
+      <c r="H13" s="2">
         <f t="shared" si="6"/>
         <v>750</v>
       </c>
-      <c r="I13" s="3">
-        <f t="shared" si="7"/>
-        <v>3.75</v>
-      </c>
-      <c r="J13" s="3">
+      <c r="I13" s="2">
+        <f t="shared" si="7"/>
+        <v>14.01</v>
+      </c>
+      <c r="J13" s="2">
         <f t="shared" si="8"/>
         <v>50600</v>
       </c>
-      <c r="K13" s="3">
+      <c r="K13" s="2">
         <f t="shared" si="9"/>
         <v>12100</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
+      <c r="A14" s="2">
         <v>13</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="2">
         <f t="shared" si="0"/>
         <v>730</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="2">
         <f t="shared" si="1"/>
         <v>416</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="2">
         <f t="shared" si="2"/>
         <v>146</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="2">
         <f t="shared" si="3"/>
         <v>119</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="2">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="2">
         <f t="shared" si="5"/>
         <v>85</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14" s="2">
         <f t="shared" si="6"/>
         <v>830</v>
       </c>
-      <c r="I14" s="3">
-        <f t="shared" si="7"/>
-        <v>4.1500000000000004</v>
-      </c>
-      <c r="J14" s="3">
+      <c r="I14" s="2">
+        <f t="shared" si="7"/>
+        <v>14.55</v>
+      </c>
+      <c r="J14" s="2">
         <f t="shared" si="8"/>
         <v>65000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="K14" s="2">
         <f t="shared" si="9"/>
         <v>14400</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
+      <c r="A15" s="2">
         <v>14</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="2">
         <f t="shared" si="0"/>
         <v>815</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="2">
         <f t="shared" si="1"/>
         <v>466</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="2">
         <f t="shared" si="2"/>
         <v>163</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="2">
         <f t="shared" si="3"/>
         <v>126</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15" s="2">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="G15" s="3">
+      <c r="G15" s="2">
         <f t="shared" si="5"/>
         <v>90</v>
       </c>
-      <c r="H15" s="3">
+      <c r="H15" s="2">
         <f t="shared" si="6"/>
         <v>915</v>
       </c>
-      <c r="I15" s="3">
-        <f t="shared" si="7"/>
-        <v>4.5750000000000002</v>
-      </c>
-      <c r="J15" s="3">
+      <c r="I15" s="2">
+        <f t="shared" si="7"/>
+        <v>15.09</v>
+      </c>
+      <c r="J15" s="2">
         <f t="shared" si="8"/>
         <v>81900</v>
       </c>
-      <c r="K15" s="3">
+      <c r="K15" s="2">
         <f t="shared" si="9"/>
         <v>16900</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
+      <c r="A16" s="2">
         <v>15</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16" s="2">
         <f t="shared" si="0"/>
         <v>905</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="2">
         <f t="shared" si="1"/>
         <v>519</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="2">
         <f t="shared" si="2"/>
         <v>181</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16" s="2">
         <f t="shared" si="3"/>
         <v>133</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F16" s="2">
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="G16" s="3">
+      <c r="G16" s="2">
         <f t="shared" si="5"/>
         <v>95</v>
       </c>
-      <c r="H16" s="3">
+      <c r="H16" s="2">
         <f t="shared" si="6"/>
         <v>1005</v>
       </c>
-      <c r="I16" s="3">
-        <f t="shared" si="7"/>
-        <v>5.0250000000000004</v>
-      </c>
-      <c r="J16" s="3">
+      <c r="I16" s="2">
+        <f t="shared" si="7"/>
+        <v>15.61</v>
+      </c>
+      <c r="J16" s="2">
         <f t="shared" si="8"/>
         <v>101500</v>
       </c>
-      <c r="K16" s="3">
+      <c r="K16" s="2">
         <f t="shared" si="9"/>
         <v>19600</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
+      <c r="A17" s="2">
         <v>16</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17" s="2">
         <f t="shared" si="0"/>
         <v>1000</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="2">
         <f t="shared" si="1"/>
         <v>575</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="2">
         <f t="shared" si="2"/>
         <v>200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17" s="2">
         <f t="shared" si="3"/>
         <v>140</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F17" s="2">
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="G17" s="3">
+      <c r="G17" s="2">
         <f t="shared" si="5"/>
         <v>100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="H17" s="2">
         <f t="shared" si="6"/>
         <v>1100</v>
       </c>
-      <c r="I17" s="3">
-        <f t="shared" si="7"/>
-        <v>5.5</v>
-      </c>
-      <c r="J17" s="3">
+      <c r="I17" s="2">
+        <f t="shared" si="7"/>
+        <v>16.13</v>
+      </c>
+      <c r="J17" s="2">
         <f t="shared" si="8"/>
         <v>124000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="K17" s="2">
         <f t="shared" si="9"/>
         <v>22500</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
+      <c r="A18" s="2">
         <v>17</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18" s="2">
         <f t="shared" si="0"/>
         <v>1100</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="2">
         <f t="shared" si="1"/>
         <v>634</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="2">
         <f t="shared" si="2"/>
         <v>220</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="2">
         <f t="shared" si="3"/>
         <v>147</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F18" s="2">
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="G18" s="3">
+      <c r="G18" s="2">
         <f t="shared" si="5"/>
         <v>105</v>
       </c>
-      <c r="H18" s="3">
+      <c r="H18" s="2">
         <f t="shared" si="6"/>
         <v>1200</v>
       </c>
-      <c r="I18" s="3">
-        <f t="shared" si="7"/>
-        <v>6</v>
-      </c>
-      <c r="J18" s="3">
+      <c r="I18" s="2">
+        <f t="shared" si="7"/>
+        <v>16.63</v>
+      </c>
+      <c r="J18" s="2">
         <f t="shared" si="8"/>
         <v>149600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="K18" s="2">
         <f t="shared" si="9"/>
         <v>25600</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="3">
+      <c r="A19" s="2">
         <v>18</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B19" s="2">
         <f t="shared" si="0"/>
         <v>1205</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19" s="2">
         <f t="shared" si="1"/>
         <v>696</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19" s="2">
         <f t="shared" si="2"/>
         <v>241</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E19" s="2">
         <f t="shared" si="3"/>
         <v>154</v>
       </c>
-      <c r="F19" s="3">
+      <c r="F19" s="2">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="G19" s="3">
+      <c r="G19" s="2">
         <f t="shared" si="5"/>
         <v>110</v>
       </c>
-      <c r="H19" s="3">
+      <c r="H19" s="2">
         <f t="shared" si="6"/>
         <v>1305</v>
       </c>
-      <c r="I19" s="3">
-        <f t="shared" si="7"/>
-        <v>6.5250000000000004</v>
-      </c>
-      <c r="J19" s="3">
+      <c r="I19" s="2">
+        <f t="shared" si="7"/>
+        <v>17.13</v>
+      </c>
+      <c r="J19" s="2">
         <f t="shared" si="8"/>
         <v>178500</v>
       </c>
-      <c r="K19" s="3">
+      <c r="K19" s="2">
         <f t="shared" si="9"/>
         <v>28900</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="3">
+      <c r="A20" s="2">
         <v>19</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B20" s="2">
         <f t="shared" si="0"/>
         <v>1315</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20" s="2">
         <f t="shared" si="1"/>
         <v>761</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="2">
         <f t="shared" si="2"/>
         <v>263</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E20" s="2">
         <f t="shared" si="3"/>
         <v>161</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F20" s="2">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="G20" s="3">
+      <c r="G20" s="2">
         <f t="shared" si="5"/>
         <v>115</v>
       </c>
-      <c r="H20" s="3">
+      <c r="H20" s="2">
         <f t="shared" si="6"/>
         <v>1415</v>
       </c>
-      <c r="I20" s="3">
-        <f t="shared" si="7"/>
-        <v>7.0750000000000002</v>
-      </c>
-      <c r="J20" s="3">
+      <c r="I20" s="2">
+        <f t="shared" si="7"/>
+        <v>17.62</v>
+      </c>
+      <c r="J20" s="2">
         <f t="shared" si="8"/>
         <v>210900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="K20" s="2">
         <f t="shared" si="9"/>
         <v>32400</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="3">
+      <c r="A21" s="2">
         <v>20</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B21" s="2">
         <f t="shared" si="0"/>
         <v>1430</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21" s="2">
         <f t="shared" si="1"/>
         <v>829</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="2">
         <f t="shared" si="2"/>
         <v>286</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="2">
         <f t="shared" si="3"/>
         <v>168</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F21" s="2">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="G21" s="3">
+      <c r="G21" s="2">
         <f t="shared" si="5"/>
         <v>120</v>
       </c>
-      <c r="H21" s="3">
+      <c r="H21" s="2">
         <f t="shared" si="6"/>
         <v>1530</v>
       </c>
-      <c r="I21" s="3">
-        <f t="shared" si="7"/>
-        <v>7.65</v>
-      </c>
-      <c r="J21" s="3">
+      <c r="I21" s="2">
+        <f t="shared" si="7"/>
+        <v>18.09</v>
+      </c>
+      <c r="J21" s="2">
         <f t="shared" si="8"/>
         <v>247000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="K21" s="2">
         <f t="shared" si="9"/>
         <v>36100</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="3">
+      <c r="A22" s="2">
         <v>21</v>
       </c>
-      <c r="B22" s="3">
+      <c r="B22" s="2">
         <f t="shared" si="0"/>
         <v>1550</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22" s="2">
         <f t="shared" si="1"/>
         <v>900</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="2">
         <f t="shared" si="2"/>
         <v>310</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E22" s="2">
         <f t="shared" si="3"/>
         <v>175</v>
       </c>
-      <c r="F22" s="3">
+      <c r="F22" s="2">
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
-      <c r="G22" s="3">
+      <c r="G22" s="2">
         <f t="shared" si="5"/>
         <v>125</v>
       </c>
-      <c r="H22" s="3">
+      <c r="H22" s="2">
         <f t="shared" si="6"/>
         <v>1650</v>
       </c>
-      <c r="I22" s="3">
-        <f t="shared" si="7"/>
-        <v>8.25</v>
-      </c>
-      <c r="J22" s="3">
+      <c r="I22" s="2">
+        <f t="shared" si="7"/>
+        <v>18.559999999999999</v>
+      </c>
+      <c r="J22" s="2">
         <f t="shared" si="8"/>
         <v>287000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="K22" s="2">
         <f t="shared" si="9"/>
         <v>40000</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="3">
+      <c r="A23" s="2">
         <v>22</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B23" s="2">
         <f t="shared" si="0"/>
         <v>1675</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C23" s="2">
         <f t="shared" si="1"/>
         <v>974</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="2">
         <f t="shared" si="2"/>
         <v>335</v>
       </c>
-      <c r="E23" s="3">
+      <c r="E23" s="2">
         <f t="shared" si="3"/>
         <v>182</v>
       </c>
-      <c r="F23" s="3">
+      <c r="F23" s="2">
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
-      <c r="G23" s="3">
+      <c r="G23" s="2">
         <f t="shared" si="5"/>
         <v>130</v>
       </c>
-      <c r="H23" s="3">
+      <c r="H23" s="2">
         <f t="shared" si="6"/>
         <v>1775</v>
       </c>
-      <c r="I23" s="3">
-        <f t="shared" si="7"/>
-        <v>8.875</v>
-      </c>
-      <c r="J23" s="3">
+      <c r="I23" s="2">
+        <f t="shared" si="7"/>
+        <v>19.03</v>
+      </c>
+      <c r="J23" s="2">
         <f t="shared" si="8"/>
         <v>331100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="K23" s="2">
         <f t="shared" si="9"/>
         <v>44100</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="3">
+      <c r="A24" s="2">
         <v>23</v>
       </c>
-      <c r="B24" s="3">
+      <c r="B24" s="2">
         <f t="shared" si="0"/>
         <v>1805</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C24" s="2">
         <f t="shared" si="1"/>
         <v>1051</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D24" s="2">
         <f t="shared" si="2"/>
         <v>361</v>
       </c>
-      <c r="E24" s="3">
+      <c r="E24" s="2">
         <f t="shared" si="3"/>
         <v>189</v>
       </c>
-      <c r="F24" s="3">
+      <c r="F24" s="2">
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
-      <c r="G24" s="3">
+      <c r="G24" s="2">
         <f t="shared" si="5"/>
         <v>135</v>
       </c>
-      <c r="H24" s="3">
+      <c r="H24" s="2">
         <f t="shared" si="6"/>
         <v>1905</v>
       </c>
-      <c r="I24" s="3">
-        <f t="shared" si="7"/>
-        <v>9.5250000000000004</v>
-      </c>
-      <c r="J24" s="3">
+      <c r="I24" s="2">
+        <f t="shared" si="7"/>
+        <v>19.48</v>
+      </c>
+      <c r="J24" s="2">
         <f t="shared" si="8"/>
         <v>379500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="K24" s="2">
         <f t="shared" si="9"/>
         <v>48400</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="3">
+      <c r="A25" s="2">
         <v>24</v>
       </c>
-      <c r="B25" s="3">
+      <c r="B25" s="2">
         <f t="shared" si="0"/>
         <v>1940</v>
       </c>
-      <c r="C25" s="3">
+      <c r="C25" s="2">
         <f t="shared" si="1"/>
         <v>1131</v>
       </c>
-      <c r="D25" s="3">
+      <c r="D25" s="2">
         <f t="shared" si="2"/>
         <v>388</v>
       </c>
-      <c r="E25" s="3">
+      <c r="E25" s="2">
         <f t="shared" si="3"/>
         <v>196</v>
       </c>
-      <c r="F25" s="3">
+      <c r="F25" s="2">
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="G25" s="3">
+      <c r="G25" s="2">
         <f t="shared" si="5"/>
         <v>140</v>
       </c>
-      <c r="H25" s="3">
+      <c r="H25" s="2">
         <f t="shared" si="6"/>
         <v>2040</v>
       </c>
-      <c r="I25" s="3">
-        <f t="shared" si="7"/>
-        <v>10.199999999999999</v>
-      </c>
-      <c r="J25" s="3">
+      <c r="I25" s="2">
+        <f t="shared" si="7"/>
+        <v>19.920000000000002</v>
+      </c>
+      <c r="J25" s="2">
         <f t="shared" si="8"/>
         <v>432400</v>
       </c>
-      <c r="K25" s="3">
+      <c r="K25" s="2">
         <f t="shared" si="9"/>
         <v>52900</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="3">
+      <c r="A26" s="2">
         <v>25</v>
       </c>
-      <c r="B26" s="3">
+      <c r="B26" s="2">
         <f t="shared" si="0"/>
         <v>2080</v>
       </c>
-      <c r="C26" s="3">
+      <c r="C26" s="2">
         <f t="shared" si="1"/>
         <v>1214</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="2">
         <f t="shared" si="2"/>
         <v>416</v>
       </c>
-      <c r="E26" s="3">
+      <c r="E26" s="2">
         <f t="shared" si="3"/>
         <v>203</v>
       </c>
-      <c r="F26" s="3">
+      <c r="F26" s="2">
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="G26" s="3">
+      <c r="G26" s="2">
         <f t="shared" si="5"/>
         <v>145</v>
       </c>
-      <c r="H26" s="3">
+      <c r="H26" s="2">
         <f t="shared" si="6"/>
         <v>2180</v>
       </c>
-      <c r="I26" s="3">
-        <f t="shared" si="7"/>
-        <v>10.9</v>
-      </c>
-      <c r="J26" s="3">
+      <c r="I26" s="2">
+        <f t="shared" si="7"/>
+        <v>20.36</v>
+      </c>
+      <c r="J26" s="2">
         <f t="shared" si="8"/>
         <v>490000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="K26" s="2">
         <f t="shared" si="9"/>
         <v>57600</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="3">
+      <c r="A27" s="2">
         <v>26</v>
       </c>
-      <c r="B27" s="3">
+      <c r="B27" s="2">
         <f t="shared" si="0"/>
         <v>2225</v>
       </c>
-      <c r="C27" s="3">
+      <c r="C27" s="2">
         <f t="shared" si="1"/>
         <v>1300</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="2">
         <f t="shared" si="2"/>
         <v>445</v>
       </c>
-      <c r="E27" s="3">
+      <c r="E27" s="2">
         <f t="shared" si="3"/>
         <v>210</v>
       </c>
-      <c r="F27" s="3">
+      <c r="F27" s="2">
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="G27" s="3">
+      <c r="G27" s="2">
         <f t="shared" si="5"/>
         <v>150</v>
       </c>
-      <c r="H27" s="3">
+      <c r="H27" s="2">
         <f t="shared" si="6"/>
         <v>2325</v>
       </c>
-      <c r="I27" s="3">
-        <f t="shared" si="7"/>
-        <v>11.625</v>
-      </c>
-      <c r="J27" s="3">
+      <c r="I27" s="2">
+        <f t="shared" si="7"/>
+        <v>20.79</v>
+      </c>
+      <c r="J27" s="2">
         <f t="shared" si="8"/>
         <v>552500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="K27" s="2">
         <f t="shared" si="9"/>
         <v>62500</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="3">
+      <c r="A28" s="2">
         <v>27</v>
       </c>
-      <c r="B28" s="3">
+      <c r="B28" s="2">
         <f t="shared" si="0"/>
         <v>2375</v>
       </c>
-      <c r="C28" s="3">
+      <c r="C28" s="2">
         <f t="shared" si="1"/>
         <v>1389</v>
       </c>
-      <c r="D28" s="3">
+      <c r="D28" s="2">
         <f t="shared" si="2"/>
         <v>475</v>
       </c>
-      <c r="E28" s="3">
+      <c r="E28" s="2">
         <f t="shared" si="3"/>
         <v>217</v>
       </c>
-      <c r="F28" s="3">
+      <c r="F28" s="2">
         <f t="shared" si="4"/>
         <v>10</v>
       </c>
-      <c r="G28" s="3">
+      <c r="G28" s="2">
         <f t="shared" si="5"/>
         <v>155</v>
       </c>
-      <c r="H28" s="3">
+      <c r="H28" s="2">
         <f t="shared" si="6"/>
         <v>2475</v>
       </c>
-      <c r="I28" s="3">
-        <f t="shared" si="7"/>
-        <v>12.375</v>
-      </c>
-      <c r="J28" s="3">
+      <c r="I28" s="2">
+        <f t="shared" si="7"/>
+        <v>21.21</v>
+      </c>
+      <c r="J28" s="2">
         <f t="shared" si="8"/>
         <v>620100</v>
       </c>
-      <c r="K28" s="3">
+      <c r="K28" s="2">
         <f t="shared" si="9"/>
         <v>67600</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="3">
+      <c r="A29" s="2">
         <v>28</v>
       </c>
-      <c r="B29" s="3">
+      <c r="B29" s="2">
         <f t="shared" si="0"/>
         <v>2530</v>
       </c>
-      <c r="C29" s="3">
+      <c r="C29" s="2">
         <f t="shared" si="1"/>
         <v>1481</v>
       </c>
-      <c r="D29" s="3">
+      <c r="D29" s="2">
         <f t="shared" si="2"/>
         <v>506</v>
       </c>
-      <c r="E29" s="3">
+      <c r="E29" s="2">
         <f t="shared" si="3"/>
         <v>224</v>
       </c>
-      <c r="F29" s="3">
+      <c r="F29" s="2">
         <f t="shared" si="4"/>
         <v>10</v>
       </c>
-      <c r="G29" s="3">
+      <c r="G29" s="2">
         <f t="shared" si="5"/>
         <v>160</v>
       </c>
-      <c r="H29" s="3">
+      <c r="H29" s="2">
         <f t="shared" si="6"/>
         <v>2630</v>
       </c>
-      <c r="I29" s="3">
-        <f t="shared" si="7"/>
-        <v>13.15</v>
-      </c>
-      <c r="J29" s="3">
+      <c r="I29" s="2">
+        <f t="shared" si="7"/>
+        <v>21.62</v>
+      </c>
+      <c r="J29" s="2">
         <f t="shared" si="8"/>
         <v>693000</v>
       </c>
-      <c r="K29" s="3">
+      <c r="K29" s="2">
         <f t="shared" si="9"/>
         <v>72900</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="3">
+      <c r="A30" s="2">
         <v>29</v>
       </c>
-      <c r="B30" s="3">
+      <c r="B30" s="2">
         <f t="shared" si="0"/>
         <v>2690</v>
       </c>
-      <c r="C30" s="3">
+      <c r="C30" s="2">
         <f t="shared" si="1"/>
         <v>1576</v>
       </c>
-      <c r="D30" s="3">
+      <c r="D30" s="2">
         <f t="shared" si="2"/>
         <v>538</v>
       </c>
-      <c r="E30" s="3">
+      <c r="E30" s="2">
         <f t="shared" si="3"/>
         <v>231</v>
       </c>
-      <c r="F30" s="3">
+      <c r="F30" s="2">
         <f t="shared" si="4"/>
         <v>10</v>
       </c>
-      <c r="G30" s="3">
+      <c r="G30" s="2">
         <f t="shared" si="5"/>
         <v>165</v>
       </c>
-      <c r="H30" s="3">
+      <c r="H30" s="2">
         <f t="shared" si="6"/>
         <v>2790</v>
       </c>
-      <c r="I30" s="3">
-        <f t="shared" si="7"/>
-        <v>13.95</v>
-      </c>
-      <c r="J30" s="3">
+      <c r="I30" s="2">
+        <f t="shared" si="7"/>
+        <v>22.03</v>
+      </c>
+      <c r="J30" s="2">
         <f t="shared" si="8"/>
         <v>771400</v>
       </c>
-      <c r="K30" s="3">
+      <c r="K30" s="2">
         <f t="shared" si="9"/>
         <v>78400</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="3">
+      <c r="A31" s="2">
         <v>30</v>
       </c>
-      <c r="B31" s="3">
+      <c r="B31" s="2">
         <f t="shared" si="0"/>
         <v>2855</v>
       </c>
-      <c r="C31" s="3">
+      <c r="C31" s="2">
         <f t="shared" si="1"/>
         <v>1674</v>
       </c>
-      <c r="D31" s="3">
+      <c r="D31" s="2">
         <f t="shared" si="2"/>
         <v>571</v>
       </c>
-      <c r="E31" s="3">
+      <c r="E31" s="2">
         <f t="shared" si="3"/>
         <v>238</v>
       </c>
-      <c r="F31" s="3">
+      <c r="F31" s="2">
         <f>INT(A31/3)+1+5</f>
         <v>16</v>
       </c>
-      <c r="G31" s="3">
+      <c r="G31" s="2">
         <f t="shared" si="5"/>
         <v>170</v>
       </c>
-      <c r="H31" s="3">
+      <c r="H31" s="2">
         <f t="shared" si="6"/>
         <v>2955</v>
       </c>
-      <c r="I31" s="3">
-        <f t="shared" si="7"/>
-        <v>14.775</v>
-      </c>
-      <c r="J31" s="3">
+      <c r="I31" s="2">
+        <f t="shared" si="7"/>
+        <v>22.43</v>
+      </c>
+      <c r="J31" s="2">
         <f t="shared" si="8"/>
         <v>855500</v>
       </c>
-      <c r="K31" s="3">
+      <c r="K31" s="2">
         <f t="shared" si="9"/>
         <v>84100</v>
       </c>
